--- a/spreadsheet_conversion/blood/blood_example.xlsx
+++ b/spreadsheet_conversion/blood/blood_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpernet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIDS\ONP\BIDS-converter\spreadsheet_conversion\blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD7794-070C-4DC3-99A4-001F7CEBBFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15331A8-5862-47A9-8BC0-5EB783ED4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -843,6 +843,7 @@
       <c r="AB10">
         <v>19.430288690813679</v>
       </c>
+      <c r="AD10" s="3"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="X11">
@@ -857,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>0.94240185871412085</v>
+        <v>2.6038257396855347</v>
       </c>
       <c r="Z12">
-        <v>0.94240185871412085</v>
+        <v>2.6038257396855347</v>
       </c>
       <c r="AA12">
-        <v>0.87597377200000004</v>
+        <v>2.4202870927432429</v>
       </c>
       <c r="AB12">
         <v>2.6038257396855387</v>
@@ -957,13 +958,10 @@
         <v>1510878819</v>
       </c>
       <c r="Z23">
-        <v>0.88717388582392775</v>
+        <v>2.4512326436167768</v>
       </c>
       <c r="AA23">
-        <v>0.73078032900000001</v>
-      </c>
-      <c r="AB23">
-        <v>1.5108788193035168</v>
+        <v>2.0191223235726747</v>
       </c>
     </row>
     <row r="24" spans="24:28" x14ac:dyDescent="0.35">
@@ -974,13 +972,10 @@
         <v>1250953944</v>
       </c>
       <c r="Z24">
-        <v>0.9876970497706401</v>
+        <v>2.7289748820247333</v>
       </c>
       <c r="AA24">
-        <v>0.48267500400000002</v>
-      </c>
-      <c r="AB24">
-        <v>1.2509539442295483</v>
+        <v>1.3336153655648415</v>
       </c>
     </row>
     <row r="25" spans="24:28" x14ac:dyDescent="0.35">
@@ -991,13 +986,10 @@
         <v>1302358278</v>
       </c>
       <c r="Z25">
-        <v>1.0607712243826037</v>
+        <v>2.9308764540574193</v>
       </c>
       <c r="AA25">
-        <v>0.25832960100000002</v>
-      </c>
-      <c r="AB25">
-        <v>1.3023582780919436</v>
+        <v>0.71375630065532591</v>
       </c>
     </row>
     <row r="26" spans="24:28" x14ac:dyDescent="0.35">
@@ -1008,13 +1000,10 @@
         <v>1363570232</v>
       </c>
       <c r="Z26">
-        <v>1.1914855637010808</v>
+        <v>3.2920359298333337</v>
       </c>
       <c r="AA26">
-        <v>0.14819046799999999</v>
-      </c>
-      <c r="AB26">
-        <v>1.3635702323215919</v>
+        <v>0.40944545194439969</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheet_conversion/blood/blood_example.xlsx
+++ b/spreadsheet_conversion/blood/blood_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIDS\ONP\BIDS-converter\spreadsheet_conversion\blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15331A8-5862-47A9-8BC0-5EB783ED4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B719E53-6A28-4349-8EB9-E975DCB41218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -151,9 +151,6 @@
     <t>13:04:42</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>manual_whole_blood</t>
   </si>
   <si>
@@ -166,10 +163,10 @@
     <t>autosampler_whole_blood</t>
   </si>
   <si>
-    <t>autosampler_plasma</t>
-  </si>
-  <si>
-    <t>autosampler_parent_fraction</t>
+    <t>time_autosampler</t>
+  </si>
+  <si>
+    <t>time_manual</t>
   </si>
 </sst>
 </file>
@@ -211,11 +208,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,46 +536,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.9140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.58203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,371 +646,374 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>400</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>929.6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>10</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2.6038257396855347</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>2.6038257396855347</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>2.4202870927432429</v>
+      </c>
+      <c r="AB2" s="2">
         <v>0.1</v>
       </c>
-      <c r="AB2">
+      <c r="AC2" s="2">
         <v>0.1806712347038926</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P3" s="2">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>20</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1510878819</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>2.4512326436167768</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2.0191223235726747</v>
+      </c>
+      <c r="AB3" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB3">
+      <c r="AC3" s="2">
         <v>0.12315723878982274</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P4" s="2">
         <v>180</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>60</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>1250953944</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>2.7289748820247333</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3336153655648415</v>
+      </c>
+      <c r="AB4" s="2">
         <v>0.3</v>
       </c>
-      <c r="AB4">
+      <c r="AC4" s="2">
         <v>0.13827082850410888</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P5">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P5" s="2">
         <v>540</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>120</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1302358278</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>2.9308764540574193</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.71375630065532591</v>
+      </c>
+      <c r="AB5" s="2">
         <v>0.4</v>
       </c>
-      <c r="AB5">
+      <c r="AC5" s="2">
         <v>1.5586366435794305</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P6">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P6" s="2">
         <v>1260</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>120</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1363570232</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>3.2920359298333337</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.40944545194439969</v>
+      </c>
+      <c r="AB6" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB6">
+      <c r="AC6" s="2">
         <v>12.60661967715952</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P7">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P7" s="2">
         <v>2700</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>300</v>
       </c>
-      <c r="X7">
+      <c r="AB7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AB7">
+      <c r="AC7" s="2">
         <v>21.642328472165822</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P8">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P8" s="2">
         <v>4500</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>300</v>
       </c>
-      <c r="X8">
+      <c r="AB8" s="2">
         <v>0.7</v>
       </c>
-      <c r="AB8">
+      <c r="AC8" s="2">
         <v>28.260412432814505</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P9">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P9" s="2">
         <v>6300</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>300</v>
       </c>
-      <c r="X9">
+      <c r="AB9" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB9">
+      <c r="AC9" s="2">
         <v>25.732606124169475</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X10">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB10" s="2">
         <v>0.9</v>
       </c>
-      <c r="AB10">
+      <c r="AC10" s="2">
         <v>19.430288690813679</v>
       </c>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X11">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB11" s="2">
         <v>1</v>
       </c>
-      <c r="AB11">
+      <c r="AC11" s="2">
         <v>15.763897581969536</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X12">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB12" s="2">
         <v>5</v>
       </c>
-      <c r="Y12">
-        <v>2.6038257396855347</v>
-      </c>
-      <c r="Z12">
-        <v>2.6038257396855347</v>
-      </c>
-      <c r="AA12">
-        <v>2.4202870927432429</v>
-      </c>
-      <c r="AB12">
+      <c r="AC12" s="2">
         <v>2.6038257396855387</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X13">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB13" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB13">
+      <c r="AC13" s="2">
         <v>1.4127075293008573</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X14">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB14" s="2">
         <v>5.2</v>
       </c>
-      <c r="AB14">
+      <c r="AC14" s="2">
         <v>1.5508024213271285</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB15" s="2">
         <v>5.3</v>
       </c>
-      <c r="AB15">
+      <c r="AC15" s="2">
         <v>1.9835303309212777</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X16">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB16" s="2">
         <v>5.4</v>
       </c>
-      <c r="AB16">
+      <c r="AC16" s="2">
         <v>1.2821724442055766</v>
       </c>
     </row>
-    <row r="17" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X17">
+    <row r="17" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB17" s="2">
         <v>5.5</v>
       </c>
-      <c r="AB17">
+      <c r="AC17" s="2">
         <v>1.9230837535950536</v>
       </c>
     </row>
-    <row r="18" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X18">
+    <row r="18" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB18" s="2">
         <v>5.6</v>
       </c>
-      <c r="AB18">
+      <c r="AC18" s="2">
         <v>1.8590866181962005</v>
       </c>
     </row>
-    <row r="19" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X19">
+    <row r="19" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB19" s="2">
         <v>5.7</v>
       </c>
-      <c r="AB19">
+      <c r="AC19" s="2">
         <v>1.5760483803048748</v>
       </c>
     </row>
-    <row r="20" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X20">
+    <row r="20" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB20" s="2">
         <v>5.8</v>
       </c>
-      <c r="AB20">
+      <c r="AC20" s="2">
         <v>1.5079092518548047</v>
       </c>
     </row>
-    <row r="21" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X21">
+    <row r="21" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB21" s="2">
         <v>5.9</v>
       </c>
-      <c r="AB21">
+      <c r="AC21" s="2">
         <v>1.8746585867777545</v>
       </c>
     </row>
-    <row r="22" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X22">
+    <row r="22" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="AB22" s="2">
         <v>6</v>
       </c>
-      <c r="AB22">
+      <c r="AC22" s="2">
         <v>1.4461300767213285</v>
       </c>
     </row>
-    <row r="23" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X23">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1510878819</v>
-      </c>
-      <c r="Z23">
-        <v>2.4512326436167768</v>
-      </c>
-      <c r="AA23">
-        <v>2.0191223235726747</v>
-      </c>
-    </row>
-    <row r="24" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X24">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1250953944</v>
-      </c>
-      <c r="Z24">
-        <v>2.7289748820247333</v>
-      </c>
-      <c r="AA24">
-        <v>1.3336153655648415</v>
-      </c>
-    </row>
-    <row r="25" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X25">
-        <v>40</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>1302358278</v>
-      </c>
-      <c r="Z25">
-        <v>2.9308764540574193</v>
-      </c>
-      <c r="AA25">
-        <v>0.71375630065532591</v>
-      </c>
-    </row>
-    <row r="26" spans="24:28" x14ac:dyDescent="0.35">
-      <c r="X26">
-        <v>60</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>1363570232</v>
-      </c>
-      <c r="Z26">
-        <v>3.2920359298333337</v>
-      </c>
-      <c r="AA26">
-        <v>0.40944545194439969</v>
-      </c>
+    <row r="23" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="25:29" x14ac:dyDescent="0.35">
+      <c r="Y26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spreadsheet_conversion/blood/blood_example.xlsx
+++ b/spreadsheet_conversion/blood/blood_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIDS\ONP\BIDS-converter\spreadsheet_conversion\blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B719E53-6A28-4349-8EB9-E975DCB41218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A1DCB-DBD0-43FA-9921-F3597D3BE255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>time_manual</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaboliteMethod </t>
+  </si>
+  <si>
+    <t>MetaboliteRecoveryCorrectionApplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DispersionCorrected </t>
+  </si>
+  <si>
+    <t>HPLC</t>
   </si>
 </sst>
 </file>
@@ -536,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -566,16 +581,17 @@
     <col min="21" max="21" width="17.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.6640625" style="2"/>
+    <col min="28" max="28" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,13 +674,16 @@
         <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -746,14 +765,17 @@
       <c r="AA2" s="2">
         <v>2.4202870927432429</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2">
         <v>0.1</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>0.1806712347038926</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P3" s="2">
         <v>60</v>
       </c>
@@ -772,14 +794,17 @@
       <c r="AA3" s="2">
         <v>2.0191223235726747</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="2">
         <v>0.2</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>0.12315723878982274</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P4" s="2">
         <v>180</v>
       </c>
@@ -798,14 +823,17 @@
       <c r="AA4" s="2">
         <v>1.3336153655648415</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="2">
         <v>0.3</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>0.13827082850410888</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P5" s="2">
         <v>540</v>
       </c>
@@ -824,14 +852,17 @@
       <c r="AA5" s="2">
         <v>0.71375630065532591</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <v>0.4</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>1.5586366435794305</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P6" s="2">
         <v>1260</v>
       </c>
@@ -850,172 +881,179 @@
       <c r="AA6" s="2">
         <v>0.40944545194439969</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="2">
         <v>0.5</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>12.60661967715952</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P7" s="2">
         <v>2700</v>
       </c>
       <c r="Q7" s="2">
         <v>300</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>21.642328472165822</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P8" s="2">
         <v>4500</v>
       </c>
       <c r="Q8" s="2">
         <v>300</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>0.7</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>28.260412432814505</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="P9" s="2">
         <v>6300</v>
       </c>
       <c r="Q9" s="2">
         <v>300</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <v>0.8</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>25.732606124169475</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB10" s="2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC10" s="2">
         <v>0.9</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
         <v>19.430288690813679</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB11" s="2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC11" s="2">
         <v>1</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <v>15.763897581969536</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB12" s="2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC12" s="2">
         <v>5</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>2.6038257396855387</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB13" s="2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC13" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <v>1.4127075293008573</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB14" s="2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC14" s="2">
         <v>5.2</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <v>1.5508024213271285</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB15" s="2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC15" s="2">
         <v>5.3</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AD15" s="2">
         <v>1.9835303309212777</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="AB16" s="2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC16" s="2">
         <v>5.4</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <v>1.2821724442055766</v>
       </c>
     </row>
-    <row r="17" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB17" s="2">
+    <row r="17" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC17" s="2">
         <v>5.5</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
         <v>1.9230837535950536</v>
       </c>
     </row>
-    <row r="18" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB18" s="2">
+    <row r="18" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC18" s="2">
         <v>5.6</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <v>1.8590866181962005</v>
       </c>
     </row>
-    <row r="19" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB19" s="2">
+    <row r="19" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC19" s="2">
         <v>5.7</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AD19" s="2">
         <v>1.5760483803048748</v>
       </c>
     </row>
-    <row r="20" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB20" s="2">
+    <row r="20" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC20" s="2">
         <v>5.8</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <v>1.5079092518548047</v>
       </c>
     </row>
-    <row r="21" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB21" s="2">
+    <row r="21" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC21" s="2">
         <v>5.9</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <v>1.8746585867777545</v>
       </c>
     </row>
-    <row r="22" spans="25:29" x14ac:dyDescent="0.35">
-      <c r="AB22" s="2">
+    <row r="22" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="AC22" s="2">
         <v>6</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <v>1.4461300767213285</v>
       </c>
     </row>
-    <row r="23" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="25:30" x14ac:dyDescent="0.35">
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="25:30" x14ac:dyDescent="0.35">
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="25:30" x14ac:dyDescent="0.35">
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="25:30" x14ac:dyDescent="0.35">
       <c r="Y26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheet_conversion/blood/blood_example.xlsx
+++ b/spreadsheet_conversion/blood/blood_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIDS\ONP\BIDS-converter\spreadsheet_conversion\blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A1DCB-DBD0-43FA-9921-F3597D3BE255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804DB8B-A32E-4A5E-969A-41C5E187BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>HPLC</t>
+  </si>
+  <si>
+    <t>hplc_recovery_fractions</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -585,13 +588,14 @@
     <col min="25" max="25" width="19.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.6640625" style="2"/>
+    <col min="28" max="28" width="21.1640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,16 +678,19 @@
         <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -765,17 +772,17 @@
       <c r="AA2" s="2">
         <v>2.4202870927432429</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>0.1</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AE2" s="2">
         <v>0.1806712347038926</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P3" s="2">
         <v>60</v>
       </c>
@@ -794,17 +801,17 @@
       <c r="AA3" s="2">
         <v>2.0191223235726747</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>0.2</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AE3" s="2">
         <v>0.12315723878982274</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P4" s="2">
         <v>180</v>
       </c>
@@ -823,17 +830,17 @@
       <c r="AA4" s="2">
         <v>1.3336153655648415</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>0.3</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>0.13827082850410888</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P5" s="2">
         <v>540</v>
       </c>
@@ -852,17 +859,17 @@
       <c r="AA5" s="2">
         <v>0.71375630065532591</v>
       </c>
-      <c r="AB5" s="2" t="b">
+      <c r="AC5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>0.4</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>1.5586366435794305</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P6" s="2">
         <v>1260</v>
       </c>
@@ -881,175 +888,175 @@
       <c r="AA6" s="2">
         <v>0.40944545194439969</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>12.60661967715952</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P7" s="2">
         <v>2700</v>
       </c>
       <c r="Q7" s="2">
         <v>300</v>
       </c>
-      <c r="AB7" s="2" t="b">
+      <c r="AC7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>0.6</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>21.642328472165822</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P8" s="2">
         <v>4500</v>
       </c>
       <c r="Q8" s="2">
         <v>300</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>0.7</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>28.260412432814505</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="P9" s="2">
         <v>6300</v>
       </c>
       <c r="Q9" s="2">
         <v>300</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>0.8</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AE9" s="2">
         <v>25.732606124169475</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC10" s="2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD10" s="2">
         <v>0.9</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AE10" s="2">
         <v>19.430288690813679</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC11" s="2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD11" s="2">
         <v>1</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AE11" s="2">
         <v>15.763897581969536</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC12" s="2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD12" s="2">
         <v>5</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AE12" s="2">
         <v>2.6038257396855387</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC13" s="2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD13" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>1.4127075293008573</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC14" s="2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD14" s="2">
         <v>5.2</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>1.5508024213271285</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC15" s="2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD15" s="2">
         <v>5.3</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AE15" s="2">
         <v>1.9835303309212777</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="AC16" s="2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD16" s="2">
         <v>5.4</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AE16" s="2">
         <v>1.2821724442055766</v>
       </c>
     </row>
-    <row r="17" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC17" s="2">
+    <row r="17" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD17" s="2">
         <v>5.5</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AE17" s="2">
         <v>1.9230837535950536</v>
       </c>
     </row>
-    <row r="18" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC18" s="2">
+    <row r="18" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD18" s="2">
         <v>5.6</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AE18" s="2">
         <v>1.8590866181962005</v>
       </c>
     </row>
-    <row r="19" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC19" s="2">
+    <row r="19" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD19" s="2">
         <v>5.7</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AE19" s="2">
         <v>1.5760483803048748</v>
       </c>
     </row>
-    <row r="20" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC20" s="2">
+    <row r="20" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD20" s="2">
         <v>5.8</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AE20" s="2">
         <v>1.5079092518548047</v>
       </c>
     </row>
-    <row r="21" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC21" s="2">
+    <row r="21" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD21" s="2">
         <v>5.9</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AE21" s="2">
         <v>1.8746585867777545</v>
       </c>
     </row>
-    <row r="22" spans="25:30" x14ac:dyDescent="0.35">
-      <c r="AC22" s="2">
+    <row r="22" spans="25:31" x14ac:dyDescent="0.35">
+      <c r="AD22" s="2">
         <v>6</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AE22" s="2">
         <v>1.4461300767213285</v>
       </c>
     </row>
-    <row r="23" spans="25:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="25:31" x14ac:dyDescent="0.35">
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="25:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="25:31" x14ac:dyDescent="0.35">
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="25:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="25:31" x14ac:dyDescent="0.35">
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="25:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="25:31" x14ac:dyDescent="0.35">
       <c r="Y26" s="4"/>
     </row>
   </sheetData>
